--- a/All Species Calculations.xlsx
+++ b/All Species Calculations.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/paoloattanasio/Documents/GitHub/Archaeos/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6BFD1F9-9CA4-F34B-B534-CF2767ABBA8B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8AF7DE34-FCC9-4747-A844-F1BD3721C55D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="21740" yWindow="500" windowWidth="38180" windowHeight="34060" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="9620" yWindow="500" windowWidth="38180" windowHeight="34060" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5787" uniqueCount="215">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5788" uniqueCount="216">
   <si>
     <t>ID</t>
   </si>
@@ -679,14 +679,24 @@
   <si>
     <t>Class_Name</t>
   </si>
+  <si>
+    <t>*All data listed in μm</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -742,19 +752,20 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1059,11 +1070,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AS1324"/>
+  <dimension ref="A1:AU1324"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A108" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="AC1" sqref="AC1"/>
+    <sheetView tabSelected="1" topLeftCell="L1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A220" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="AU1" sqref="AU1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1071,7 +1082,7 @@
     <col min="29" max="29" width="10.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:45" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:47" s="1" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1204,8 +1215,11 @@
       <c r="AS1" s="1" t="s">
         <v>202</v>
       </c>
-    </row>
-    <row r="2" spans="1:45" x14ac:dyDescent="0.2">
+      <c r="AU1" s="6" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="2" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>37</v>
       </c>
@@ -1339,7 +1353,7 @@
         <v>13554.520067118179</v>
       </c>
     </row>
-    <row r="3" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>39</v>
       </c>
@@ -1473,7 +1487,7 @@
         <v>15392.181342282731</v>
       </c>
     </row>
-    <row r="4" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>40</v>
       </c>
@@ -1607,7 +1621,7 @@
         <v>7849.6490182343596</v>
       </c>
     </row>
-    <row r="5" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>41</v>
       </c>
@@ -1741,7 +1755,7 @@
         <v>12455.0778800302</v>
       </c>
     </row>
-    <row r="6" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>42</v>
       </c>
@@ -1830,7 +1844,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="7" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>43</v>
       </c>
@@ -1964,7 +1978,7 @@
         <v>67297.32698306875</v>
       </c>
     </row>
-    <row r="8" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>45</v>
       </c>
@@ -2098,7 +2112,7 @@
         <v>2105.3450731352859</v>
       </c>
     </row>
-    <row r="9" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>46</v>
       </c>
@@ -2232,7 +2246,7 @@
         <v>7346.8181079717478</v>
       </c>
     </row>
-    <row r="10" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>47</v>
       </c>
@@ -2366,7 +2380,7 @@
         <v>26675.031964242611</v>
       </c>
     </row>
-    <row r="11" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>48</v>
       </c>
@@ -2500,7 +2514,7 @@
         <v>108465.80131518991</v>
       </c>
     </row>
-    <row r="12" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>49</v>
       </c>
@@ -2583,7 +2597,7 @@
         <v>37117.115472469202</v>
       </c>
     </row>
-    <row r="13" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>50</v>
       </c>
@@ -2717,7 +2731,7 @@
         <v>79798.288806951328</v>
       </c>
     </row>
-    <row r="14" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>52</v>
       </c>
@@ -2851,7 +2865,7 @@
         <v>2209.4619222459692</v>
       </c>
     </row>
-    <row r="15" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>53</v>
       </c>
@@ -2985,7 +2999,7 @@
         <v>28144.990543691791</v>
       </c>
     </row>
-    <row r="16" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>55</v>
       </c>
